--- a/CallAuction.xlsx
+++ b/CallAuction.xlsx
@@ -1,31 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anamini\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoujiawang/Desktop/Brandeis Life/2020 Spring/AdvQuantFin Python/AdvQuantFin/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30D40D7-6DA7-EB47-B609-0F8EEA5C6CF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21465" windowHeight="9540"/>
+    <workbookView xWindow="60" yWindow="800" windowWidth="21460" windowHeight="16020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$C$1</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="13">
   <si>
     <t>Price</t>
   </si>
@@ -53,11 +65,23 @@
   <si>
     <t>Clearing Price</t>
   </si>
+  <si>
+    <t>Side</t>
+  </si>
+  <si>
+    <t>Sell</t>
+  </si>
+  <si>
+    <t>Buy</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -282,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -310,6 +334,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,28 +622,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:I44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="70.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="70.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="4:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="4:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D3" s="18" t="s">
         <v>0</v>
       </c>
@@ -630,7 +663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D4" s="14">
         <v>50</v>
       </c>
@@ -653,7 +686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D5" s="6">
         <f>D4+10</f>
         <v>60</v>
@@ -677,7 +710,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D6" s="6">
         <f t="shared" ref="D6:D44" si="2">D5+10</f>
         <v>70</v>
@@ -701,7 +734,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D7" s="6">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -725,7 +758,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D8" s="6">
         <f t="shared" si="2"/>
         <v>90</v>
@@ -749,7 +782,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D9" s="6">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -773,7 +806,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D10" s="6">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -797,7 +830,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D11" s="6">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -821,7 +854,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D12" s="6">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -845,7 +878,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D13" s="6">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -869,7 +902,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D14" s="6">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -893,7 +926,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D15" s="6">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -917,7 +950,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D16" s="6">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -941,7 +974,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D17" s="6">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -965,7 +998,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D18" s="6">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -989,7 +1022,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D19" s="6">
         <f t="shared" si="2"/>
         <v>200</v>
@@ -1013,7 +1046,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D20" s="6">
         <f t="shared" si="2"/>
         <v>210</v>
@@ -1037,7 +1070,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D21" s="6">
         <f t="shared" si="2"/>
         <v>220</v>
@@ -1061,7 +1094,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D22" s="6">
         <f t="shared" si="2"/>
         <v>230</v>
@@ -1085,7 +1118,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D23" s="6">
         <f t="shared" si="2"/>
         <v>240</v>
@@ -1109,7 +1142,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D24" s="6">
         <f t="shared" si="2"/>
         <v>250</v>
@@ -1133,7 +1166,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>8</v>
       </c>
@@ -1166,7 +1199,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D26" s="6">
         <f t="shared" si="2"/>
         <v>270</v>
@@ -1190,7 +1223,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D27" s="6">
         <f t="shared" si="2"/>
         <v>280</v>
@@ -1214,7 +1247,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D28" s="6">
         <f t="shared" si="2"/>
         <v>290</v>
@@ -1238,7 +1271,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D29" s="6">
         <f t="shared" si="2"/>
         <v>300</v>
@@ -1262,7 +1295,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D30" s="6">
         <f t="shared" si="2"/>
         <v>310</v>
@@ -1286,7 +1319,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D31" s="6">
         <f t="shared" si="2"/>
         <v>320</v>
@@ -1310,7 +1343,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D32" s="6">
         <f t="shared" si="2"/>
         <v>330</v>
@@ -1334,7 +1367,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D33" s="6">
         <f t="shared" si="2"/>
         <v>340</v>
@@ -1358,7 +1391,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D34" s="6">
         <f t="shared" si="2"/>
         <v>350</v>
@@ -1382,7 +1415,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D35" s="6">
         <f t="shared" si="2"/>
         <v>360</v>
@@ -1406,7 +1439,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D36" s="6">
         <f t="shared" si="2"/>
         <v>370</v>
@@ -1430,7 +1463,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D37" s="6">
         <f t="shared" si="2"/>
         <v>380</v>
@@ -1454,7 +1487,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D38" s="6">
         <f t="shared" si="2"/>
         <v>390</v>
@@ -1478,7 +1511,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D39" s="6">
         <f t="shared" si="2"/>
         <v>400</v>
@@ -1502,7 +1535,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D40" s="6">
         <f t="shared" si="2"/>
         <v>410</v>
@@ -1526,7 +1559,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D41" s="6">
         <f t="shared" si="2"/>
         <v>420</v>
@@ -1550,7 +1583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D42" s="6">
         <f t="shared" si="2"/>
         <v>430</v>
@@ -1574,7 +1607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D43" s="6">
         <f t="shared" si="2"/>
         <v>440</v>
@@ -1598,7 +1631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D44" s="10">
         <f t="shared" si="2"/>
         <v>450</v>
@@ -1626,4 +1659,936 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A8328E-7EF4-E349-A91B-7D20A8D49AE7}">
+  <dimension ref="A1:C83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="24">
+        <v>120</v>
+      </c>
+      <c r="B2" s="25">
+        <v>0</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="24">
+        <v>340</v>
+      </c>
+      <c r="B3" s="25">
+        <v>10</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="24">
+        <v>350</v>
+      </c>
+      <c r="B4" s="25">
+        <v>5</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="24">
+        <v>100</v>
+      </c>
+      <c r="B5" s="25">
+        <v>10</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="24">
+        <v>270</v>
+      </c>
+      <c r="B6" s="25">
+        <v>5</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="24">
+        <v>170</v>
+      </c>
+      <c r="B7" s="25">
+        <v>5</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="24">
+        <v>250</v>
+      </c>
+      <c r="B8" s="25">
+        <v>5</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="24">
+        <v>440</v>
+      </c>
+      <c r="B9" s="25">
+        <v>5</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="24">
+        <v>370</v>
+      </c>
+      <c r="B10" s="25">
+        <v>5</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="24">
+        <v>80</v>
+      </c>
+      <c r="B11" s="25">
+        <v>5</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="24">
+        <v>290</v>
+      </c>
+      <c r="B12" s="25">
+        <v>0</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="24">
+        <v>210</v>
+      </c>
+      <c r="B13" s="25">
+        <v>0</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="24">
+        <v>320</v>
+      </c>
+      <c r="B14" s="25">
+        <v>5</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="24">
+        <v>380</v>
+      </c>
+      <c r="B15" s="25">
+        <v>10</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="24">
+        <v>130</v>
+      </c>
+      <c r="B16" s="25">
+        <v>0</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="24">
+        <v>120</v>
+      </c>
+      <c r="B17" s="25">
+        <v>0</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="24">
+        <v>360</v>
+      </c>
+      <c r="B18" s="25">
+        <v>5</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="24">
+        <v>280</v>
+      </c>
+      <c r="B19" s="25">
+        <v>0</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="24">
+        <v>310</v>
+      </c>
+      <c r="B20" s="25">
+        <v>5</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="24">
+        <v>330</v>
+      </c>
+      <c r="B21" s="25">
+        <v>10</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="24">
+        <v>200</v>
+      </c>
+      <c r="B22" s="25">
+        <v>0</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="24">
+        <v>270</v>
+      </c>
+      <c r="B23" s="25">
+        <v>10</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="24">
+        <v>180</v>
+      </c>
+      <c r="B24" s="25">
+        <v>10</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="24">
+        <v>150</v>
+      </c>
+      <c r="B25" s="25">
+        <v>5</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="24">
+        <v>430</v>
+      </c>
+      <c r="B26" s="25">
+        <v>0</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="24">
+        <v>80</v>
+      </c>
+      <c r="B27" s="25">
+        <v>0</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="24">
+        <v>70</v>
+      </c>
+      <c r="B28" s="25">
+        <v>0</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="24">
+        <v>60</v>
+      </c>
+      <c r="B29" s="25">
+        <v>10</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="24">
+        <v>170</v>
+      </c>
+      <c r="B30" s="25">
+        <v>10</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="24">
+        <v>250</v>
+      </c>
+      <c r="B31" s="25">
+        <v>5</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="24">
+        <v>140</v>
+      </c>
+      <c r="B32" s="25">
+        <v>0</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="24">
+        <v>370</v>
+      </c>
+      <c r="B33" s="25">
+        <v>10</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="24">
+        <v>290</v>
+      </c>
+      <c r="B34" s="25">
+        <v>0</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="24">
+        <v>220</v>
+      </c>
+      <c r="B35" s="25">
+        <v>0</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="24">
+        <v>320</v>
+      </c>
+      <c r="B36" s="25">
+        <v>5</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="24">
+        <v>300</v>
+      </c>
+      <c r="B37" s="25">
+        <v>0</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="24">
+        <v>240</v>
+      </c>
+      <c r="B38" s="25">
+        <v>5</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="24">
+        <v>190</v>
+      </c>
+      <c r="B39" s="25">
+        <v>0</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="24">
+        <v>60</v>
+      </c>
+      <c r="B40" s="25">
+        <v>0</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="24">
+        <v>220</v>
+      </c>
+      <c r="B41" s="25">
+        <v>0</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="24">
+        <v>240</v>
+      </c>
+      <c r="B42" s="25">
+        <v>10</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="24">
+        <v>350</v>
+      </c>
+      <c r="B43" s="25">
+        <v>0</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="24">
+        <v>200</v>
+      </c>
+      <c r="B44" s="25">
+        <v>5</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="24">
+        <v>310</v>
+      </c>
+      <c r="B45" s="25">
+        <v>5</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="24">
+        <v>110</v>
+      </c>
+      <c r="B46" s="25">
+        <v>10</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="24">
+        <v>260</v>
+      </c>
+      <c r="B47" s="25">
+        <v>10</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="24">
+        <v>210</v>
+      </c>
+      <c r="B48" s="25">
+        <v>5</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="24">
+        <v>440</v>
+      </c>
+      <c r="B49" s="25">
+        <v>0</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="24">
+        <v>300</v>
+      </c>
+      <c r="B50" s="25">
+        <v>5</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="24">
+        <v>90</v>
+      </c>
+      <c r="B51" s="25">
+        <v>0</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="24">
+        <v>400</v>
+      </c>
+      <c r="B52" s="25">
+        <v>0</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="24">
+        <v>110</v>
+      </c>
+      <c r="B53" s="25">
+        <v>0</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="24">
+        <v>100</v>
+      </c>
+      <c r="B54" s="25">
+        <v>10</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="24">
+        <v>190</v>
+      </c>
+      <c r="B55" s="25">
+        <v>5</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="24">
+        <v>410</v>
+      </c>
+      <c r="B56" s="25">
+        <v>0</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="24">
+        <v>390</v>
+      </c>
+      <c r="B57" s="25">
+        <v>0</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="24">
+        <v>420</v>
+      </c>
+      <c r="B58" s="25">
+        <v>0</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="24">
+        <v>390</v>
+      </c>
+      <c r="B59" s="25">
+        <v>10</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="24">
+        <v>330</v>
+      </c>
+      <c r="B60" s="25">
+        <v>5</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="24">
+        <v>230</v>
+      </c>
+      <c r="B61" s="25">
+        <v>10</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="24">
+        <v>360</v>
+      </c>
+      <c r="B62" s="25">
+        <v>10</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="24">
+        <v>130</v>
+      </c>
+      <c r="B63" s="25">
+        <v>0</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="24">
+        <v>280</v>
+      </c>
+      <c r="B64" s="25">
+        <v>5</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="24">
+        <v>450</v>
+      </c>
+      <c r="B65" s="25">
+        <v>0</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="24">
+        <v>70</v>
+      </c>
+      <c r="B66" s="25">
+        <v>0</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="24">
+        <v>410</v>
+      </c>
+      <c r="B67" s="25">
+        <v>10</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="24">
+        <v>450</v>
+      </c>
+      <c r="B68" s="25">
+        <v>5</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="24">
+        <v>160</v>
+      </c>
+      <c r="B69" s="25">
+        <v>10</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="24">
+        <v>400</v>
+      </c>
+      <c r="B70" s="25">
+        <v>10</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="24">
+        <v>90</v>
+      </c>
+      <c r="B71" s="25">
+        <v>0</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="24">
+        <v>380</v>
+      </c>
+      <c r="B72" s="25">
+        <v>0</v>
+      </c>
+      <c r="C72" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="24">
+        <v>150</v>
+      </c>
+      <c r="B73" s="25">
+        <v>10</v>
+      </c>
+      <c r="C73" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="24">
+        <v>180</v>
+      </c>
+      <c r="B74" s="25">
+        <v>0</v>
+      </c>
+      <c r="C74" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="24">
+        <v>140</v>
+      </c>
+      <c r="B75" s="25">
+        <v>0</v>
+      </c>
+      <c r="C75" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="24">
+        <v>420</v>
+      </c>
+      <c r="B76" s="25">
+        <v>0</v>
+      </c>
+      <c r="C76" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="24">
+        <v>160</v>
+      </c>
+      <c r="B77" s="25">
+        <v>10</v>
+      </c>
+      <c r="C77" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="24">
+        <v>340</v>
+      </c>
+      <c r="B78" s="25">
+        <v>0</v>
+      </c>
+      <c r="C78" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="24">
+        <v>50</v>
+      </c>
+      <c r="B79" s="25">
+        <v>10</v>
+      </c>
+      <c r="C79" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="24">
+        <v>50</v>
+      </c>
+      <c r="B80" s="25">
+        <v>0</v>
+      </c>
+      <c r="C80" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="24">
+        <v>230</v>
+      </c>
+      <c r="B81" s="25">
+        <v>0</v>
+      </c>
+      <c r="C81" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="24">
+        <v>430</v>
+      </c>
+      <c r="B82" s="25">
+        <v>0</v>
+      </c>
+      <c r="C82" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="24">
+        <v>260</v>
+      </c>
+      <c r="B83" s="25">
+        <v>10</v>
+      </c>
+      <c r="C83" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>